--- a/InputData/endo-learn/BCSG/BAU CO2 Sequestered Globally.xlsx
+++ b/InputData/endo-learn/BCSG/BAU CO2 Sequestered Globally.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\ccs\BCSG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\BCSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,9 +117,6 @@
     </r>
   </si>
   <si>
-    <t>BAU Carbon Sequestered Globally (tons/yr)</t>
-  </si>
-  <si>
     <t>International Energy Agency</t>
   </si>
   <si>
@@ -155,13 +152,16 @@
   <si>
     <t>the lowest-cost applications.</t>
   </si>
+  <si>
+    <t>BAU Carbon Sequestered Globally (metric tons CO2e/yr)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -254,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,17 +262,20 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,82 +848,82 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -940,21 +943,21 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
     <col min="3" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>645.25886199836145</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>140.98274447844116</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>133.61743935810051</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>919.8590458349031</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1921,7 @@
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2069,7 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
@@ -2375,14 +2378,16 @@
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -2489,9 +2494,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="11">
         <f>Data!D21*10^6</f>
@@ -2892,13 +2897,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1996ED52-E455-41EF-A916-899BE91691EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EADDCB8-608A-4B30-986A-5AE53B15F6D1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FF557BF-4BC0-4ADA-A168-0A41090B6F47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF944B9F-F4D2-4473-9C4D-583B5353F9EB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{278B136E-7961-4F79-BC0F-DA30A809E65A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F9680A-C9C4-48E2-8495-76C12C4AEE04}"/>
 </file>